--- a/pineappleGlassAlumina-Composite/pineappleGlassAluminaSheets.xlsx
+++ b/pineappleGlassAlumina-Composite/pineappleGlassAluminaSheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa4772ed250681d9/K. Senthilkumar/Dr. Chandru/Palm glass alumina/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/ReserveDisk/OpenSourceContribution/paperStuff/pineappleGlassAlumina-Composite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_33D416CEB1223EA8C7D3D669F39BE7105CA92B79" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10FD0745-9984-4A5F-9CD0-82A264C23A90}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8174A9D1-61CF-9D47-A1C3-F1F0ECBAF3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2800" yWindow="1440" windowWidth="22040" windowHeight="13980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WA TS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="50">
   <si>
     <t>Specimen</t>
   </si>
@@ -77,19 +77,10 @@
     <t>Time (sqrt)</t>
   </si>
   <si>
-    <t>S.no</t>
-  </si>
-  <si>
-    <t>Tenile strength(Mpa)</t>
-  </si>
-  <si>
     <t>Modulus(GPa)</t>
   </si>
   <si>
     <t>Maximum Force(Kn)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tensile Strain </t>
   </si>
   <si>
     <t>Salt Water</t>
@@ -400,6 +391,12 @@
   <si>
     <t>GPa</t>
   </si>
+  <si>
+    <t>Tensile Strength(Mpa)</t>
+  </si>
+  <si>
+    <t>Tensile Strain</t>
+  </si>
 </sst>
 </file>
 
@@ -482,7 +479,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -925,7 +922,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1452,7 +1449,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4141,7 +4138,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6653,7 +6650,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10180,23 +10177,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10246,7 +10243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -10257,7 +10254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -10295,7 +10292,7 @@
         <v>3.593</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -10333,7 +10330,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -10371,7 +10368,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8">
         <f>((C4-B4)/B4)*100</f>
         <v>1.7830609212481308</v>
@@ -10413,7 +10410,7 @@
         <v>6.7756315007429349</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9">
         <f>((C5-B5)/B5)*100</f>
         <v>1.9428907859876448</v>
@@ -10455,7 +10452,7 @@
         <v>5.9758610538710721</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10">
         <f>((C6-B6)/B6)*100</f>
         <v>1.5935057125676468</v>
@@ -10497,7 +10494,7 @@
         <v>5.5321707757065459</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -10545,7 +10542,7 @@
         <v>6.0945544434401846</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -10593,7 +10590,7 @@
         <v>0.63017040094133214</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -10631,7 +10628,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -10679,7 +10676,7 @@
         <v>20.09975124224178</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -10729,7 +10726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -10767,7 +10764,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -10805,7 +10802,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C18">
         <f>((C16-B16)/B16)*100</f>
         <v>1.2422360248447077</v>
@@ -10847,7 +10844,7 @@
         <v>4.9689440993788727</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C19">
         <f>((C17-B17)/B17)*100</f>
         <v>0</v>
@@ -10889,7 +10886,7 @@
         <v>4.5871559633027497</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>9</v>
       </c>
@@ -10934,7 +10931,7 @@
         <v>4.7780500313408112</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -10979,7 +10976,7 @@
         <v>0.26996497999599894</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>11</v>
       </c>
@@ -11017,7 +11014,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>12</v>
       </c>
@@ -11065,7 +11062,7 @@
         <v>20.09975124224178</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -11115,7 +11112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -11153,7 +11150,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -11191,7 +11188,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C27">
         <v>0</v>
       </c>
@@ -11225,7 +11222,7 @@
         <v>1.8404910000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C28">
         <v>0.31152647975078601</v>
       </c>
@@ -11259,7 +11256,7 @@
         <v>5.9190031200000002</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>9</v>
       </c>
@@ -11298,7 +11295,7 @@
         <v>3.8797470600000001</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -11337,7 +11334,7 @@
         <v>2.8839435772035218</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -11372,7 +11369,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>12</v>
       </c>
@@ -11415,7 +11412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -11465,7 +11462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -11503,7 +11500,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -11541,7 +11538,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C36">
         <v>0</v>
       </c>
@@ -11575,7 +11572,7 @@
         <v>2.8391167192428979</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C37">
         <v>0</v>
       </c>
@@ -11609,7 +11606,7 @@
         <v>3.1746031746031771</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>9</v>
       </c>
@@ -11646,7 +11643,7 @@
         <v>3.0068599469230373</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -11683,7 +11680,7 @@
         <v>0.23722474758149142</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>11</v>
       </c>
@@ -11718,7 +11715,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>12</v>
       </c>
@@ -11761,7 +11758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="R42">
         <v>0</v>
       </c>
@@ -11793,7 +11790,7 @@
         <v>0.23722474758149142</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="R43">
         <v>0.22028248635095449</v>
       </c>
@@ -11825,7 +11822,7 @@
         <v>2.8839435772035218</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="R44">
         <v>0</v>
       </c>
@@ -11857,7 +11854,7 @@
         <v>0.63316479642347989</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C45">
         <v>0.62111801200000005</v>
       </c>
@@ -11929,7 +11926,7 @@
         <v>1.2514443737361642</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C46">
         <v>0</v>
       </c>
@@ -11963,7 +11960,7 @@
         <v>4.7780500310000003</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C47">
         <v>0.15576323987539301</v>
       </c>
@@ -11999,9 +11996,9 @@
         <v>4.7780500310000003</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C48">
         <f>AVERAGE(C45:C47)</f>
@@ -12044,15 +12041,15 @@
         <v>4.7780500310000003</v>
       </c>
     </row>
-    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:12" x14ac:dyDescent="0.2">
       <c r="F52" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K52" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E54" t="s">
         <v>12</v>
       </c>
@@ -12066,13 +12063,13 @@
         <v>11</v>
       </c>
       <c r="K54" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L54" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:12" x14ac:dyDescent="0.2">
       <c r="J55">
         <v>0</v>
       </c>
@@ -12083,7 +12080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E56">
         <v>0</v>
       </c>
@@ -12103,7 +12100,7 @@
         <v>0.3517033083863419</v>
       </c>
     </row>
-    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E57" s="5">
         <v>4.8989794855663558</v>
       </c>
@@ -12123,7 +12120,7 @@
         <v>0.52878143382602316</v>
       </c>
     </row>
-    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E58" s="5">
         <v>6.9282032302755088</v>
       </c>
@@ -12143,7 +12140,7 @@
         <v>0.59695712801453038</v>
       </c>
     </row>
-    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E59" s="5">
         <v>8.4852813742385695</v>
       </c>
@@ -12163,7 +12160,7 @@
         <v>0.62177549976543811</v>
       </c>
     </row>
-    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E60" s="5">
         <v>12</v>
       </c>
@@ -12183,7 +12180,7 @@
         <v>0.81119103278948534</v>
       </c>
     </row>
-    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E61" s="5">
         <v>12.961481396815721</v>
       </c>
@@ -12203,7 +12200,7 @@
         <v>0.61736023329015388</v>
       </c>
     </row>
-    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E62" s="5">
         <v>14.696938456699069</v>
       </c>
@@ -12223,7 +12220,7 @@
         <v>1.2615624719405185</v>
       </c>
     </row>
-    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E63" s="5">
         <v>15.491933384829668</v>
       </c>
@@ -12243,7 +12240,7 @@
         <v>1.237376185984268</v>
       </c>
     </row>
-    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E64" s="5">
         <v>17.663521732655695</v>
       </c>
@@ -12263,7 +12260,7 @@
         <v>1.2514443737361642</v>
       </c>
     </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E65">
         <v>19</v>
       </c>
@@ -12282,41 +12279,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
       <c r="E1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>79.8</v>
@@ -12331,9 +12328,9 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>77.489999999999995</v>
@@ -12348,9 +12345,9 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>78.400000000000006</v>
@@ -12365,9 +12362,9 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>77.290000000000006</v>
@@ -12382,9 +12379,9 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>79.83</v>
@@ -12399,195 +12396,89 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>27</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
       </c>
       <c r="B7">
-        <f>AVERAGE(B2:B6)</f>
-        <v>78.561999999999998</v>
+        <v>113.98</v>
       </c>
       <c r="C7">
-        <f>AVERAGE(C2:C6)</f>
-        <v>6.9908000000000001</v>
+        <v>10.223000000000001</v>
       </c>
       <c r="D7">
-        <f>AVERAGE(D2:D6)</f>
-        <v>2.9699999999999998</v>
+        <v>2.72</v>
       </c>
       <c r="E7">
-        <f>AVERAGE(E2:E6)</f>
-        <v>1.6640000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
       </c>
       <c r="B8">
-        <f>STDEV(B2:B6)</f>
-        <v>1.2179778323105865</v>
+        <v>117.91</v>
       </c>
       <c r="C8">
-        <f>STDEV(C2:C7)</f>
-        <v>0.1238570143350793</v>
+        <v>10.058999999999999</v>
       </c>
       <c r="D8">
-        <f>STDEV(D2:D6)</f>
-        <v>4.7958315233127193E-2</v>
+        <v>2.81</v>
       </c>
       <c r="E8">
-        <f>STDEV(E2:E7)</f>
-        <v>5.161395160225575E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>115.53</v>
+      </c>
+      <c r="C9">
+        <v>9.5640000000000001</v>
+      </c>
+      <c r="D9">
+        <v>2.76</v>
+      </c>
+      <c r="E9">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>117.32</v>
+      </c>
+      <c r="C10">
+        <v>10.182</v>
+      </c>
+      <c r="D10">
+        <v>2.8</v>
+      </c>
+      <c r="E10">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
-        <v>113.98</v>
+        <v>118.37</v>
       </c>
       <c r="C11">
-        <v>10.223000000000001</v>
+        <v>10.010999999999999</v>
       </c>
       <c r="D11">
-        <v>2.72</v>
+        <v>2.83</v>
       </c>
       <c r="E11">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>117.91</v>
-      </c>
-      <c r="C12">
-        <v>10.058999999999999</v>
-      </c>
-      <c r="D12">
-        <v>2.81</v>
-      </c>
-      <c r="E12">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>115.53</v>
-      </c>
-      <c r="C13">
-        <v>9.5640000000000001</v>
-      </c>
-      <c r="D13">
-        <v>2.76</v>
-      </c>
-      <c r="E13">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>117.32</v>
-      </c>
-      <c r="C14">
-        <v>10.182</v>
-      </c>
-      <c r="D14">
-        <v>2.8</v>
-      </c>
-      <c r="E14">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>118.37</v>
-      </c>
-      <c r="C15">
-        <v>10.010999999999999</v>
-      </c>
-      <c r="D15">
-        <v>2.83</v>
-      </c>
-      <c r="E15">
         <v>1.66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <f>AVERAGE(B11:B15)</f>
-        <v>116.62199999999999</v>
-      </c>
-      <c r="C16">
-        <f>AVERAGE(C11:C15)</f>
-        <v>10.0078</v>
-      </c>
-      <c r="D16">
-        <f>AVERAGE(D11:D15)</f>
-        <v>2.7839999999999998</v>
-      </c>
-      <c r="E16">
-        <f>AVERAGE(E11:E15)</f>
-        <v>1.6179999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17">
-        <f>STDEV(B11:B15)</f>
-        <v>1.8285431359418332</v>
-      </c>
-      <c r="C17">
-        <f>STDEV(C11:C15)</f>
-        <v>0.26279592843116895</v>
-      </c>
-      <c r="D17">
-        <f>STDEV(D11:D15)</f>
-        <v>4.3931765272977562E-2</v>
-      </c>
-      <c r="E17">
-        <f>STDEV(E11:E15)</f>
-        <v>4.4384682042344213E-2</v>
       </c>
     </row>
   </sheetData>
@@ -12599,96 +12490,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:R236"/>
   <sheetViews>
-    <sheetView zoomScale="134" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="5" width="15.5703125" customWidth="1"/>
+    <col min="2" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="19.42578125" customWidth="1"/>
+    <col min="8" max="9" width="19.5" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>25.546937942504901</v>
       </c>
@@ -12754,7 +12645,7 @@
         <v>0.13962927460670499</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>25.579942703247099</v>
       </c>
@@ -12796,7 +12687,7 @@
         <v>7.8963525593280806E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>25.639036178588899</v>
       </c>
@@ -12850,7 +12741,7 @@
         <v>110.53870000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>25.712903976440401</v>
       </c>
@@ -12892,7 +12783,7 @@
         <v>7.0261053740978199E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>25.824806213378899</v>
       </c>
@@ -12934,7 +12825,7 @@
         <v>6.6064342856407193E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>25.946453094482401</v>
       </c>
@@ -12976,7 +12867,7 @@
         <v>6.4785465598106398E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>26.102359771728501</v>
       </c>
@@ -13018,7 +12909,7 @@
         <v>6.1634086072444902E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>26.297559738159201</v>
       </c>
@@ -13060,7 +12951,7 @@
         <v>6.0230165719985997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>26.5345649719238</v>
       </c>
@@ -13102,7 +12993,7 @@
         <v>5.8208692818880102E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>26.797975540161101</v>
       </c>
@@ -13144,7 +13035,7 @@
         <v>5.6729249656200402E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>27.0686149597168</v>
       </c>
@@ -13186,7 +13077,7 @@
         <v>5.5452726781368297E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>27.4244575500488</v>
       </c>
@@ -13228,7 +13119,7 @@
         <v>5.5076222866773598E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>27.811552047729499</v>
       </c>
@@ -13270,7 +13161,7 @@
         <v>5.3001921623945202E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>28.192712783813501</v>
       </c>
@@ -13312,7 +13203,7 @@
         <v>5.36437295377254E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>28.63791847229</v>
       </c>
@@ -13354,7 +13245,7 @@
         <v>5.2294678986072499E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>29.119678497314499</v>
       </c>
@@ -13396,7 +13287,7 @@
         <v>5.21672926843166E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>29.574256896972699</v>
       </c>
@@ -13438,7 +13329,7 @@
         <v>5.0872292369604097E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>30.111629486083999</v>
       </c>
@@ -13480,7 +13371,7 @@
         <v>5.1318347454071003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>30.698677062988299</v>
       </c>
@@ -13522,7 +13413,7 @@
         <v>5.04357442259789E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>31.2379245758057</v>
       </c>
@@ -13564,7 +13455,7 @@
         <v>4.9331560730934101E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>31.873397827148398</v>
       </c>
@@ -13606,7 +13497,7 @@
         <v>4.8650052398443201E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>32.568855285644503</v>
       </c>
@@ -13648,7 +13539,7 @@
         <v>4.8591185361146899E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>33.249629974365199</v>
       </c>
@@ -13690,7 +13581,7 @@
         <v>4.7704543918371201E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>33.978832244872997</v>
       </c>
@@ -13732,7 +13623,7 @@
         <v>4.7169238328933702E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>34.726779937744098</v>
       </c>
@@ -13774,7 +13665,7 @@
         <v>4.7222759574651697E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>35.474414825439503</v>
       </c>
@@ -13816,7 +13707,7 @@
         <v>4.6198781579732902E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>36.248603820800803</v>
       </c>
@@ -13858,7 +13749,7 @@
         <v>4.6157710254192401E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>37.0118598937988</v>
       </c>
@@ -13900,7 +13791,7 @@
         <v>4.6845670789480202E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>37.784801483154297</v>
       </c>
@@ -13942,7 +13833,7 @@
         <v>4.5358784496784203E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>38.584922790527301</v>
       </c>
@@ -13984,7 +13875,7 @@
         <v>4.5816905796527897E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>39.398441314697301</v>
       </c>
@@ -14026,7 +13917,7 @@
         <v>4.5366615056991598E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>40.194374084472699</v>
       </c>
@@ -14068,7 +13959,7 @@
         <v>4.5202061533927897E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>41.011085510253899</v>
       </c>
@@ -14110,7 +14001,7 @@
         <v>4.43137027323246E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>41.812908172607401</v>
       </c>
@@ -14152,7 +14043,7 @@
         <v>4.5104261487722397E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>42.6165962219238</v>
       </c>
@@ -14194,7 +14085,7 @@
         <v>4.5129247009754202E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>43.428985595703097</v>
       </c>
@@ -14236,7 +14127,7 @@
         <v>4.4809952378273003E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>44.222988128662102</v>
       </c>
@@ -14278,7 +14169,7 @@
         <v>4.4612843543291099E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>45.017299652099602</v>
       </c>
@@ -14320,7 +14211,7 @@
         <v>4.3866083025932298E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>45.818099975585902</v>
       </c>
@@ -14362,7 +14253,7 @@
         <v>4.4009588658809697E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>46.591087341308601</v>
       </c>
@@ -14404,7 +14295,7 @@
         <v>4.5354630798101397E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>47.352695465087898</v>
       </c>
@@ -14446,7 +14337,7 @@
         <v>4.4665563851594897E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>48.102939605712898</v>
       </c>
@@ -14488,7 +14379,7 @@
         <v>4.52393181622028E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>48.848861694335902</v>
       </c>
@@ -14530,7 +14421,7 @@
         <v>4.5671470463275902E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>49.594779968261697</v>
       </c>
@@ -14572,7 +14463,7 @@
         <v>4.5186124742031097E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>50.307682037353501</v>
       </c>
@@ -14614,7 +14505,7 @@
         <v>4.5418497174978298E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>51.035701751708999</v>
       </c>
@@ -14656,7 +14547,7 @@
         <v>4.5357134193181999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>51.731010437011697</v>
       </c>
@@ -14698,7 +14589,7 @@
         <v>4.54809479415417E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>52.423851013183601</v>
       </c>
@@ -14740,7 +14631,7 @@
         <v>4.4914014637470197E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>53.104656219482401</v>
       </c>
@@ -14782,7 +14673,7 @@
         <v>4.5682422816753401E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53.731452941894503</v>
       </c>
@@ -14824,7 +14715,7 @@
         <v>4.5914117246866198E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54.325534820556598</v>
       </c>
@@ -14866,7 +14757,7 @@
         <v>4.5624930411577197E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54.977943420410199</v>
       </c>
@@ -14908,7 +14799,7 @@
         <v>4.6758420765399898E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55.613868713378899</v>
       </c>
@@ -14950,7 +14841,7 @@
         <v>4.6835277229547501E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56.181564331054702</v>
       </c>
@@ -14992,7 +14883,7 @@
         <v>4.6837560832500499E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56.793376922607401</v>
       </c>
@@ -15034,7 +14925,7 @@
         <v>4.6585831791162498E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57.410434722900398</v>
       </c>
@@ -15076,7 +14967,7 @@
         <v>4.7695986926555599E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58.010829925537102</v>
       </c>
@@ -15118,7 +15009,7 @@
         <v>4.7931097447872197E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>58.534713745117202</v>
       </c>
@@ -15160,7 +15051,7 @@
         <v>4.7424379736185102E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>59.137355804443402</v>
       </c>
@@ -15202,7 +15093,7 @@
         <v>4.7390896826982498E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>59.71044921875</v>
       </c>
@@ -15244,7 +15135,7 @@
         <v>4.6747058629989603E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>60.302257537841797</v>
       </c>
@@ -15286,7 +15177,7 @@
         <v>4.8023983836173997E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>60.796195983886697</v>
       </c>
@@ -15328,7 +15219,7 @@
         <v>4.7022864222526599E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>61.377265930175803</v>
       </c>
@@ -15370,7 +15261,7 @@
         <v>4.7375962138175999E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>61.947906494140597</v>
       </c>
@@ -15412,7 +15303,7 @@
         <v>4.7977399080991703E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>62.510261535644503</v>
       </c>
@@ -15454,7 +15345,7 @@
         <v>4.8601288348436397E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>63.030300140380902</v>
       </c>
@@ -15496,7 +15387,7 @@
         <v>4.9073256552219398E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>63.594074249267599</v>
       </c>
@@ -15538,7 +15429,7 @@
         <v>4.8654709011316299E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>64.157852172851605</v>
       </c>
@@ -15580,7 +15471,7 @@
         <v>4.9559965729713398E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>64.717941284179702</v>
       </c>
@@ -15622,7 +15513,7 @@
         <v>4.8583891242742497E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>65.282020568847699</v>
       </c>
@@ -15664,7 +15555,7 @@
         <v>4.79792542755604E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>65.861137390136705</v>
       </c>
@@ -15706,7 +15597,7 @@
         <v>4.8593703657388701E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>66.365684509277301</v>
       </c>
@@ -15748,7 +15639,7 @@
         <v>4.9086377024650601E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>66.942962646484403</v>
       </c>
@@ -15790,7 +15681,7 @@
         <v>4.9336135387420703E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>67.515228271484403</v>
       </c>
@@ -15832,7 +15723,7 @@
         <v>4.9336753785610199E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>68.076148986816406</v>
       </c>
@@ -15874,7 +15765,7 @@
         <v>4.9836762249469799E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>68.6514892578125</v>
       </c>
@@ -15916,7 +15807,7 @@
         <v>4.9651484936475802E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>69.174659729003906</v>
       </c>
@@ -15958,7 +15849,7 @@
         <v>4.9653541296720498E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>69.761047363281307</v>
       </c>
@@ -16000,7 +15891,7 @@
         <v>5.0028651952743503E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>70.350807189941406</v>
       </c>
@@ -16042,7 +15933,7 @@
         <v>5.01588210463524E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>70.946090698242202</v>
       </c>
@@ -16084,7 +15975,7 @@
         <v>5.0876528024673497E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>71.513755798339801</v>
       </c>
@@ -16126,7 +16017,7 @@
         <v>4.9887225031852701E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>72.105659484863295</v>
       </c>
@@ -16168,7 +16059,7 @@
         <v>5.10444231331348E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>72.657684326171903</v>
       </c>
@@ -16210,7 +16101,7 @@
         <v>5.1904331892728799E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>73.1685791015625</v>
       </c>
@@ -16252,7 +16143,7 @@
         <v>5.1668368279933902E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>73.686843872070298</v>
       </c>
@@ -16294,7 +16185,7 @@
         <v>5.1474072039127301E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>74.290718078613295</v>
       </c>
@@ -16336,7 +16227,7 @@
         <v>5.2453741431236302E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>74.884201049804702</v>
       </c>
@@ -16378,7 +16269,7 @@
         <v>5.2513767033815398E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>75.498832702636705</v>
       </c>
@@ -16420,7 +16311,7 @@
         <v>5.3982730954885497E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>76.096923828125</v>
       </c>
@@ -16462,7 +16353,7 @@
         <v>5.3605262190103503E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>76.621826171875</v>
       </c>
@@ -16504,7 +16395,7 @@
         <v>5.5256426334381097E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>77.245025634765597</v>
       </c>
@@ -16546,7 +16437,7 @@
         <v>5.47118782997131E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>77.860267639160199</v>
       </c>
@@ -16588,7 +16479,7 @@
         <v>5.6721013039350503E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>78.411506652832003</v>
       </c>
@@ -16630,7 +16521,7 @@
         <v>5.8010678738355602E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>78.9981689453125</v>
       </c>
@@ -16672,7 +16563,7 @@
         <v>5.7547584176063503E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>79.619560241699205</v>
       </c>
@@ -16714,7 +16605,7 @@
         <v>5.9469889849424397E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>80.243713378906307</v>
       </c>
@@ -16756,7 +16647,7 @@
         <v>6.1285737901925999E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>80.867256164550795</v>
       </c>
@@ -16798,7 +16689,7 @@
         <v>6.2160179018974297E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>81.482818603515597</v>
       </c>
@@ -16840,7 +16731,7 @@
         <v>6.4011648297309903E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>82.107276916503906</v>
       </c>
@@ -16882,7 +16773,7 @@
         <v>6.5367303788661998E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>82.730819702148395</v>
       </c>
@@ -16924,7 +16815,7 @@
         <v>6.7161314189434093E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>83.342399597167997</v>
       </c>
@@ -16966,7 +16857,7 @@
         <v>6.8302460014820099E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>83.974830627441406</v>
       </c>
@@ -17008,7 +16899,7 @@
         <v>6.9825850427150699E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>84.591934204101605</v>
       </c>
@@ -17050,7 +16941,7 @@
         <v>7.2587661445140797E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>85.214859008789105</v>
       </c>
@@ -17092,7 +16983,7 @@
         <v>7.4610665440559401E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>85.847595214843807</v>
       </c>
@@ -17134,7 +17025,7 @@
         <v>7.6539218425750705E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>86.458564758300795</v>
       </c>
@@ -17176,7 +17067,7 @@
         <v>7.8413285315036801E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>87.079032897949205</v>
       </c>
@@ -17218,7 +17109,7 @@
         <v>8.1963703036308302E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>87.696441650390597</v>
       </c>
@@ -17260,7 +17151,7 @@
         <v>8.5485421121120495E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>88.309242248535199</v>
       </c>
@@ -17302,7 +17193,7 @@
         <v>8.6265638470649705E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>88.933395385742202</v>
       </c>
@@ -17344,7 +17235,7 @@
         <v>9.0091787278652205E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>89.568901062011705</v>
       </c>
@@ -17386,7 +17277,7 @@
         <v>9.2365473508834797E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>90.186614990234403</v>
       </c>
@@ -17428,7 +17319,7 @@
         <v>9.6215896308422103E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>90.805549621582003</v>
       </c>
@@ -17470,7 +17361,7 @@
         <v>9.9204033613204998E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>91.424491882324205</v>
       </c>
@@ -17512,7 +17403,7 @@
         <v>0.10201422870159101</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>92.0489501953125</v>
       </c>
@@ -17554,7 +17445,7 @@
         <v>0.10513148456811899</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>92.669731140136705</v>
       </c>
@@ -17596,7 +17487,7 @@
         <v>0.107184410095215</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>93.306457519531307</v>
       </c>
@@ -17638,7 +17529,7 @@
         <v>0.112218610942364</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>93.939201354980497</v>
       </c>
@@ -17680,7 +17571,7 @@
         <v>0.113893792033195</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>94.565650939941406</v>
       </c>
@@ -17722,7 +17613,7 @@
         <v>0.117051094770432</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>95.196136474609403</v>
       </c>
@@ -17764,7 +17655,7 @@
         <v>0.118278130888939</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>95.830307006835895</v>
       </c>
@@ -17806,7 +17697,7 @@
         <v>0.1205715239048</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>96.453094482421903</v>
       </c>
@@ -17848,7 +17739,7 @@
         <v>0.12208054214716001</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>97.070632934570298</v>
       </c>
@@ -17890,7 +17781,7 @@
         <v>0.12516131997108501</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>97.699577331542997</v>
       </c>
@@ -17932,7 +17823,7 @@
         <v>0.127717435359955</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>98.323570251464801</v>
       </c>
@@ -17974,7 +17865,7 @@
         <v>0.127679884433746</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>98.940673828125</v>
       </c>
@@ -18016,7 +17907,7 @@
         <v>0.129882171750069</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>99.569763183593807</v>
       </c>
@@ -18058,7 +17949,7 @@
         <v>0.131315678358078</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>100.188400268555</v>
       </c>
@@ -18100,7 +17991,7 @@
         <v>0.13154380023479501</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>100.79135894775401</v>
       </c>
@@ -18142,7 +18033,7 @@
         <v>0.13192693889141099</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>101.40753936767599</v>
       </c>
@@ -18184,7 +18075,7 @@
         <v>0.13427817821502699</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>102.028327941895</v>
       </c>
@@ -18226,7 +18117,7 @@
         <v>0.13492344319820401</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>102.63811492919901</v>
       </c>
@@ -18268,7 +18159,7 @@
         <v>0.13421189785003701</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>103.243003845215</v>
       </c>
@@ -18310,7 +18201,7 @@
         <v>0.13518549501895899</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>103.846961975098</v>
       </c>
@@ -18352,7 +18243,7 @@
         <v>0.135332331061363</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>104.4462890625</v>
       </c>
@@ -18394,7 +18285,7 @@
         <v>0.136051416397095</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>105.064445495605</v>
       </c>
@@ -18436,7 +18327,7 @@
         <v>0.136031314730644</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>105.678588867188</v>
       </c>
@@ -18478,7 +18369,7 @@
         <v>0.13768325746059401</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>106.286247253418</v>
       </c>
@@ -18520,7 +18411,7 @@
         <v>0.13735647499561299</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>106.88372802734401</v>
       </c>
@@ -18562,7 +18453,7 @@
         <v>0.13822478055953999</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>107.479972839355</v>
       </c>
@@ -18604,7 +18495,7 @@
         <v>0.13741008937358901</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>108.093803405762</v>
       </c>
@@ -18646,7 +18537,7 @@
         <v>0.13828319311142001</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>108.67832183837901</v>
       </c>
@@ -18688,7 +18579,7 @@
         <v>0.13851687312126201</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>109.285362243652</v>
       </c>
@@ -18730,7 +18621,7 @@
         <v>0.13752374053001401</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>109.880989074707</v>
       </c>
@@ -18772,7 +18663,7 @@
         <v>0.13962927460670499</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>110.481552124023</v>
       </c>
@@ -18814,7 +18705,7 @@
         <v>0.13890679180622101</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>111.06329345703099</v>
       </c>
@@ -18856,7 +18747,7 @@
         <v>0.13809987902641299</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>111.66571044921901</v>
       </c>
@@ -18898,7 +18789,7 @@
         <v>0.137143939733505</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>112.255165100098</v>
       </c>
@@ -18940,7 +18831,7 @@
         <v>0.136715888977051</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>112.86313629150401</v>
       </c>
@@ -18982,7 +18873,7 @@
         <v>0.13558705151081099</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>113.456909179688</v>
       </c>
@@ -19024,7 +18915,7 @@
         <v>0.13437771797180201</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>114.04574584960901</v>
       </c>
@@ -19066,7 +18957,7 @@
         <v>0.132857486605644</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>114.656784057617</v>
       </c>
@@ -19108,7 +18999,7 @@
         <v>0.13058991730213201</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>115.270065307617</v>
       </c>
@@ -19150,7 +19041,7 @@
         <v>0.12979000806808499</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>115.87619781494099</v>
       </c>
@@ -19192,7 +19083,7 @@
         <v>0.12711991369724299</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>116.48543548584</v>
       </c>
@@ -19234,7 +19125,7 @@
         <v>0.124967135488987</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>117.090950012207</v>
       </c>
@@ -19276,7 +19167,7 @@
         <v>0.121238030493259</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>117.685905456543</v>
       </c>
@@ -19318,7 +19209,7 @@
         <v>0.118752531707287</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>118.30166625976599</v>
       </c>
@@ -19360,7 +19251,7 @@
         <v>0.117422260344028</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>118.890419006348</v>
       </c>
@@ -19402,7 +19293,7 @@
         <v>0.115177750587463</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>119.501518249512</v>
       </c>
@@ -19444,7 +19335,7 @@
         <v>0.114841058850288</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>120.103309631348</v>
       </c>
@@ -19486,7 +19377,7 @@
         <v>0.109610475599766</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>120.70074462890599</v>
       </c>
@@ -19528,7 +19419,7 @@
         <v>0.10780314356088599</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>121.327690124512</v>
       </c>
@@ -19570,7 +19461,7 @@
         <v>0.107463866472244</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>121.93320465087901</v>
       </c>
@@ -19612,7 +19503,7 @@
         <v>0.104949720203876</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>122.552627563477</v>
       </c>
@@ -19654,7 +19545,7 @@
         <v>0.104989223182201</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>123.18060302734401</v>
       </c>
@@ -19696,7 +19587,7 @@
         <v>0.103732742369175</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>123.78889465332</v>
       </c>
@@ -19738,7 +19629,7 @@
         <v>0.101314850151539</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>124.405624389648</v>
       </c>
@@ -19780,7 +19671,7 @@
         <v>0.10202945023775099</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>125.02953338623</v>
       </c>
@@ -19822,7 +19713,7 @@
         <v>9.99621972441673E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>125.64532470703099</v>
       </c>
@@ -19864,7 +19755,7 @@
         <v>9.8765522241592393E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>126.26174163818401</v>
       </c>
@@ -19906,7 +19797,7 @@
         <v>9.7680903971195193E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>126.86660003662099</v>
       </c>
@@ -19948,7 +19839,7 @@
         <v>9.7116015851497706E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>127.485511779785</v>
       </c>
@@ -19990,7 +19881,7 @@
         <v>9.6423327922821003E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>128.09381103515599</v>
       </c>
@@ -20032,7 +19923,7 @@
         <v>9.6119463443756104E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>128.706787109375</v>
       </c>
@@ -20074,7 +19965,7 @@
         <v>9.5615983009338407E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>129.30789184570301</v>
       </c>
@@ -20116,7 +20007,7 @@
         <v>9.5695659518241896E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>129.92242431640599</v>
       </c>
@@ -20158,7 +20049,7 @@
         <v>9.6295021474361406E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>130.51979064941401</v>
       </c>
@@ -20200,7 +20091,7 @@
         <v>9.4175063073635101E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>131.13870239257801</v>
       </c>
@@ -20242,7 +20133,7 @@
         <v>9.4895943999290494E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>131.74137878418</v>
       </c>
@@ -20284,7 +20175,7 @@
         <v>9.5648154616355896E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>132.34185791015599</v>
       </c>
@@ -20326,7 +20217,7 @@
         <v>9.5102787017822293E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>132.94577026367199</v>
       </c>
@@ -20368,7 +20259,7 @@
         <v>9.6325576305389404E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>133.556564331055</v>
       </c>
@@ -20410,7 +20301,7 @@
         <v>9.5126494765281705E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>134.15296936035199</v>
       </c>
@@ -20452,7 +20343,7 @@
         <v>9.5394782721996293E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>134.76559448242199</v>
       </c>
@@ -20494,7 +20385,7 @@
         <v>9.5272041857242598E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>135.36503601074199</v>
       </c>
@@ -20536,7 +20427,7 @@
         <v>9.3691542744636494E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>135.97232055664099</v>
       </c>
@@ -20578,7 +20469,7 @@
         <v>9.4487108290195507E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>136.55194091796901</v>
       </c>
@@ -20620,7 +20511,7 @@
         <v>9.4386674463748904E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>137.14602661132801</v>
       </c>
@@ -20662,7 +20553,7 @@
         <v>9.3978598713874803E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>137.753005981445</v>
       </c>
@@ -20704,7 +20595,7 @@
         <v>9.4043597579002394E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>138.33609008789099</v>
       </c>
@@ -20746,7 +20637,7 @@
         <v>9.2394493520259899E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>138.94651794433599</v>
       </c>
@@ -20788,7 +20679,7 @@
         <v>9.2961438000202207E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>139.52992248535199</v>
       </c>
@@ -20830,7 +20721,7 @@
         <v>9.2720344662666307E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>140.12463378906301</v>
       </c>
@@ -20872,7 +20763,7 @@
         <v>9.2062652111053495E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>140.71023559570301</v>
       </c>
@@ -20914,7 +20805,7 @@
         <v>9.1979436576366397E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>141.31311035156301</v>
       </c>
@@ -20956,7 +20847,7 @@
         <v>8.8953778147697393E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>141.89808654785199</v>
       </c>
@@ -20998,7 +20889,7 @@
         <v>8.9266538619995103E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>142.47709655761699</v>
       </c>
@@ -21040,7 +20931,7 @@
         <v>8.9987196028232602E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>142.99803161621099</v>
       </c>
@@ -21082,7 +20973,7 @@
         <v>8.7738603353500394E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>143.575271606445</v>
       </c>
@@ -21124,7 +21015,7 @@
         <v>8.9225217700004605E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>144.08676147460901</v>
       </c>
@@ -21166,7 +21057,7 @@
         <v>8.6143180727958693E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>144.66589355468801</v>
       </c>
@@ -21208,7 +21099,7 @@
         <v>8.8070049881935106E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>145.19593811035199</v>
       </c>
@@ -21250,7 +21141,7 @@
         <v>8.5974089801311507E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>145.74298095703099</v>
       </c>
@@ -21292,7 +21183,7 @@
         <v>8.3981156349182101E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>146.33203125</v>
       </c>
@@ -21334,7 +21225,7 @@
         <v>8.4142535924911499E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>146.88433837890599</v>
       </c>
@@ -21376,7 +21267,7 @@
         <v>8.2388430833816501E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>147.40754699707</v>
       </c>
@@ -21418,7 +21309,7 @@
         <v>8.3522476255893693E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>147.92158508300801</v>
       </c>
@@ -21460,7 +21351,7 @@
         <v>8.1947274506092099E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>148.49826049804699</v>
       </c>
@@ -21502,7 +21393,7 @@
         <v>8.2339033484458896E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>149.09390258789099</v>
       </c>
@@ -21544,7 +21435,7 @@
         <v>8.1137776374816895E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>149.634201049805</v>
       </c>
@@ -21586,7 +21477,7 @@
         <v>8.0713085830211598E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>150.14665222168</v>
       </c>
@@ -21628,7 +21519,7 @@
         <v>7.93932750821114E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>150.70213317871099</v>
       </c>
@@ -21670,7 +21561,7 @@
         <v>7.8519895672798198E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>151.24305725097699</v>
       </c>
@@ -21712,7 +21603,7 @@
         <v>8.0715246498584706E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>151.802001953125</v>
       </c>
@@ -21754,7 +21645,7 @@
         <v>7.7382251620292705E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>152.40682983398401</v>
       </c>
@@ -21796,7 +21687,7 @@
         <v>7.7565826475620298E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>152.95977783203099</v>
       </c>
@@ -21838,7 +21729,7 @@
         <v>7.6331570744514493E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>153.54309082031301</v>
       </c>
@@ -21880,7 +21771,7 @@
         <v>7.6064482331275898E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>154.115966796875</v>
       </c>
@@ -21922,7 +21813,7 @@
         <v>7.5866535305976895E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>154.69357299804699</v>
       </c>
@@ -21964,7 +21855,7 @@
         <v>7.5419366359710693E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>155.19369506835901</v>
       </c>
@@ -22006,7 +21897,7 @@
         <v>7.6075732707977295E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>155.70614624023401</v>
       </c>
@@ -22048,7 +21939,7 @@
         <v>7.5719393789768205E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>156.26448059082</v>
       </c>
@@ -22090,7 +21981,7 @@
         <v>7.5322881340980502E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>156.78167724609401</v>
       </c>
@@ -22132,7 +22023,7 @@
         <v>7.4077099561691298E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>157.32734680175801</v>
       </c>
@@ -22174,7 +22065,7 @@
         <v>7.3592148721218095E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>157.83853149414099</v>
       </c>
@@ -22216,7 +22107,7 @@
         <v>7.3176503181457506E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>158.33428955078099</v>
       </c>
@@ -22258,7 +22149,7 @@
         <v>7.4129633605480194E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>158.91227722168</v>
       </c>
@@ -22300,7 +22191,7 @@
         <v>7.3510900139808696E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>159.44859313964801</v>
       </c>
@@ -22342,7 +22233,7 @@
         <v>7.3337636888027205E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>160.00303649902301</v>
       </c>
@@ -22384,7 +22275,7 @@
         <v>7.1850679814815493E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>160.52438354492199</v>
       </c>
@@ -22406,7 +22297,7 @@
         <v>6.4951911568641704E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>161.063552856445</v>
       </c>
@@ -22428,7 +22319,7 @@
         <v>6.4161136746406597E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>161.57472229003901</v>
       </c>
@@ -22464,29 +22355,29 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22500,7 +22391,7 @@
         <v>5.2214999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22514,7 +22405,7 @@
         <v>7.4652000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -22528,7 +22419,7 @@
         <v>7.3971499999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -22542,7 +22433,7 @@
         <v>7.3377999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -22556,19 +22447,19 @@
         <v>7.9100999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C7">
         <f>AVERAGE(C2:C6)</f>
         <v>0.36019999999999996</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G7">
         <v>7.0663499999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F8" t="s">
         <v>10</v>
       </c>
@@ -22577,21 +22468,21 @@
         <v>1.0556491663900511</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -22606,7 +22497,7 @@
         <v>5.4375</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -22621,7 +22512,7 @@
         <v>6.5406976744186061</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -22636,7 +22527,7 @@
         <v>6.1451342281879198</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -22651,7 +22542,7 @@
         <v>6.3545150501672225</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -22666,19 +22557,19 @@
         <v>6.0827759197324411</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C16">
         <f>AVERAGE(C11:C15)</f>
         <v>0.2928</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G16">
         <v>6.1122446000000004</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F17" t="s">
         <v>10</v>
       </c>
@@ -22700,25 +22591,25 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22726,10 +22617,10 @@
         <v>0.26400000000000001</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22737,10 +22628,10 @@
         <v>0.38700000000000001</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -22748,10 +22639,10 @@
         <v>0.374</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -22759,10 +22650,10 @@
         <v>0.371</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -22770,18 +22661,18 @@
         <v>0.40500000000000003</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>7.0663499999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -22789,18 +22680,18 @@
         <v>1.0556491663900511</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -22808,10 +22699,10 @@
         <v>0.26100000000000001</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -22819,10 +22710,10 @@
         <v>0.315</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -22830,13 +22721,13 @@
         <v>0.29299999999999998</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -22844,10 +22735,10 @@
         <v>0.30399999999999999</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -22855,21 +22746,21 @@
         <v>0.29099999999999998</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>6.1122446000000004</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>10</v>
       </c>
@@ -22890,62 +22781,62 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>25.546937942504901</v>
       </c>
@@ -22983,7 +22874,7 @@
         <v>8.4404014050960499E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>25.579942703247099</v>
       </c>
@@ -23021,7 +22912,7 @@
         <v>7.8963525593280806E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>25.639036178588899</v>
       </c>
@@ -23059,7 +22950,7 @@
         <v>7.3155261576175704E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>25.712903976440401</v>
       </c>
@@ -23097,7 +22988,7 @@
         <v>7.0261053740978199E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>25.824806213378899</v>
       </c>
@@ -23135,7 +23026,7 @@
         <v>6.6064342856407193E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>25.946453094482401</v>
       </c>
@@ -23173,7 +23064,7 @@
         <v>6.4785465598106398E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>26.102359771728501</v>
       </c>
@@ -23211,7 +23102,7 @@
         <v>6.1634086072444902E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>26.297559738159201</v>
       </c>
@@ -23249,7 +23140,7 @@
         <v>6.0230165719985997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>26.5345649719238</v>
       </c>
@@ -23287,7 +23178,7 @@
         <v>5.8208692818880102E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>26.797975540161101</v>
       </c>
@@ -23325,7 +23216,7 @@
         <v>5.6729249656200402E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>27.0686149597168</v>
       </c>
@@ -23363,7 +23254,7 @@
         <v>5.5452726781368297E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>27.4244575500488</v>
       </c>
@@ -23401,7 +23292,7 @@
         <v>5.5076222866773598E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>27.811552047729499</v>
       </c>
@@ -23439,7 +23330,7 @@
         <v>5.3001921623945202E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>28.192712783813501</v>
       </c>
@@ -23477,7 +23368,7 @@
         <v>5.36437295377254E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>28.63791847229</v>
       </c>
@@ -23515,7 +23406,7 @@
         <v>5.2294678986072499E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>29.119678497314499</v>
       </c>
@@ -23553,7 +23444,7 @@
         <v>5.21672926843166E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>29.574256896972699</v>
       </c>
@@ -23591,7 +23482,7 @@
         <v>5.0872292369604097E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>30.111629486083999</v>
       </c>
@@ -23629,7 +23520,7 @@
         <v>5.1318347454071003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>30.698677062988299</v>
       </c>
@@ -23667,7 +23558,7 @@
         <v>5.04357442259789E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>31.2379245758057</v>
       </c>
@@ -23705,7 +23596,7 @@
         <v>4.9331560730934101E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>31.873397827148398</v>
       </c>
@@ -23743,7 +23634,7 @@
         <v>4.8650052398443201E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>32.568855285644503</v>
       </c>
@@ -23781,7 +23672,7 @@
         <v>4.8591185361146899E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>33.249629974365199</v>
       </c>
@@ -23819,7 +23710,7 @@
         <v>4.7704543918371201E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>33.978832244872997</v>
       </c>
@@ -23857,7 +23748,7 @@
         <v>4.7169238328933702E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>34.726779937744098</v>
       </c>
@@ -23895,7 +23786,7 @@
         <v>4.7222759574651697E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>35.474414825439503</v>
       </c>
@@ -23933,7 +23824,7 @@
         <v>4.6198781579732902E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>36.248603820800803</v>
       </c>
@@ -23971,7 +23862,7 @@
         <v>4.6157710254192401E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>37.0118598937988</v>
       </c>
@@ -24009,7 +23900,7 @@
         <v>4.6845670789480202E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>37.784801483154297</v>
       </c>
@@ -24047,7 +23938,7 @@
         <v>4.5358784496784203E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>38.584922790527301</v>
       </c>
@@ -24085,7 +23976,7 @@
         <v>4.5816905796527897E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>39.398441314697301</v>
       </c>
@@ -24123,7 +24014,7 @@
         <v>4.5366615056991598E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>40.194374084472699</v>
       </c>
@@ -24161,7 +24052,7 @@
         <v>4.5202061533927897E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>41.011085510253899</v>
       </c>
@@ -24199,7 +24090,7 @@
         <v>4.43137027323246E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>41.812908172607401</v>
       </c>
@@ -24237,7 +24128,7 @@
         <v>4.5104261487722397E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>42.6165962219238</v>
       </c>
@@ -24275,7 +24166,7 @@
         <v>4.5129247009754202E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>43.428985595703097</v>
       </c>
@@ -24313,7 +24204,7 @@
         <v>4.4809952378273003E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>44.222988128662102</v>
       </c>
@@ -24351,7 +24242,7 @@
         <v>4.4612843543291099E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>45.017299652099602</v>
       </c>
@@ -24389,7 +24280,7 @@
         <v>4.3866083025932298E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>45.818099975585902</v>
       </c>
@@ -24427,7 +24318,7 @@
         <v>4.4009588658809697E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>46.591087341308601</v>
       </c>
@@ -24465,7 +24356,7 @@
         <v>4.5354630798101397E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>47.352695465087898</v>
       </c>
@@ -24503,7 +24394,7 @@
         <v>4.4665563851594897E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>48.102939605712898</v>
       </c>
@@ -24541,7 +24432,7 @@
         <v>4.52393181622028E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>48.848861694335902</v>
       </c>
@@ -24579,7 +24470,7 @@
         <v>4.5671470463275902E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>49.594779968261697</v>
       </c>
@@ -24617,7 +24508,7 @@
         <v>4.5186124742031097E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>50.307682037353501</v>
       </c>
@@ -24655,7 +24546,7 @@
         <v>4.5418497174978298E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>51.035701751708999</v>
       </c>
@@ -24693,7 +24584,7 @@
         <v>4.5357134193181999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>51.731010437011697</v>
       </c>
@@ -24731,7 +24622,7 @@
         <v>4.54809479415417E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>52.423851013183601</v>
       </c>
@@ -24769,7 +24660,7 @@
         <v>4.4914014637470197E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>53.104656219482401</v>
       </c>
@@ -24807,7 +24698,7 @@
         <v>4.5682422816753401E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53.731452941894503</v>
       </c>
@@ -24845,7 +24736,7 @@
         <v>4.5914117246866198E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54.325534820556598</v>
       </c>
@@ -24883,7 +24774,7 @@
         <v>4.5624930411577197E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54.977943420410199</v>
       </c>
@@ -24921,7 +24812,7 @@
         <v>4.6758420765399898E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55.613868713378899</v>
       </c>
@@ -24959,7 +24850,7 @@
         <v>4.6835277229547501E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56.181564331054702</v>
       </c>
@@ -24997,7 +24888,7 @@
         <v>4.6837560832500499E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56.793376922607401</v>
       </c>
@@ -25035,7 +24926,7 @@
         <v>4.6585831791162498E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57.410434722900398</v>
       </c>
@@ -25073,7 +24964,7 @@
         <v>4.7695986926555599E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58.010829925537102</v>
       </c>
@@ -25111,7 +25002,7 @@
         <v>4.7931097447872197E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>58.534713745117202</v>
       </c>
@@ -25149,7 +25040,7 @@
         <v>4.7424379736185102E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>59.137355804443402</v>
       </c>
@@ -25187,7 +25078,7 @@
         <v>4.7390896826982498E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>59.71044921875</v>
       </c>
@@ -25225,7 +25116,7 @@
         <v>4.6747058629989603E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>60.302257537841797</v>
       </c>
@@ -25263,7 +25154,7 @@
         <v>4.8023983836173997E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>60.796195983886697</v>
       </c>
@@ -25301,7 +25192,7 @@
         <v>4.7022864222526599E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>61.377265930175803</v>
       </c>
@@ -25339,7 +25230,7 @@
         <v>4.7375962138175999E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>61.947906494140597</v>
       </c>
@@ -25377,7 +25268,7 @@
         <v>4.7977399080991703E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>62.510261535644503</v>
       </c>
@@ -25415,7 +25306,7 @@
         <v>4.8601288348436397E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>63.030300140380902</v>
       </c>
@@ -25453,7 +25344,7 @@
         <v>4.9073256552219398E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>63.594074249267599</v>
       </c>
@@ -25491,7 +25382,7 @@
         <v>4.8654709011316299E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>64.157852172851605</v>
       </c>
@@ -25529,7 +25420,7 @@
         <v>4.9559965729713398E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>64.717941284179702</v>
       </c>
@@ -25567,7 +25458,7 @@
         <v>4.8583891242742497E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>65.282020568847699</v>
       </c>
@@ -25605,7 +25496,7 @@
         <v>4.79792542755604E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>65.861137390136705</v>
       </c>
@@ -25643,7 +25534,7 @@
         <v>4.8593703657388701E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>66.365684509277301</v>
       </c>
@@ -25681,7 +25572,7 @@
         <v>4.9086377024650601E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>66.942962646484403</v>
       </c>
@@ -25719,7 +25610,7 @@
         <v>4.9336135387420703E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>67.515228271484403</v>
       </c>
@@ -25757,7 +25648,7 @@
         <v>4.9336753785610199E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>68.076148986816406</v>
       </c>
@@ -25795,7 +25686,7 @@
         <v>4.9836762249469799E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>68.6514892578125</v>
       </c>
@@ -25833,7 +25724,7 @@
         <v>4.9651484936475802E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>69.174659729003906</v>
       </c>
@@ -25871,7 +25762,7 @@
         <v>4.9653541296720498E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>69.761047363281307</v>
       </c>
@@ -25909,7 +25800,7 @@
         <v>5.0028651952743503E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>70.350807189941406</v>
       </c>
@@ -25947,7 +25838,7 @@
         <v>5.01588210463524E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>70.946090698242202</v>
       </c>
@@ -25985,7 +25876,7 @@
         <v>5.0876528024673497E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>71.513755798339801</v>
       </c>
@@ -26023,7 +25914,7 @@
         <v>4.9887225031852701E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>72.105659484863295</v>
       </c>
@@ -26061,7 +25952,7 @@
         <v>5.10444231331348E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>72.657684326171903</v>
       </c>
@@ -26099,7 +25990,7 @@
         <v>5.1904331892728799E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>73.1685791015625</v>
       </c>
@@ -26137,7 +26028,7 @@
         <v>5.1668368279933902E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>73.686843872070298</v>
       </c>
@@ -26175,7 +26066,7 @@
         <v>5.1474072039127301E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>74.290718078613295</v>
       </c>
@@ -26213,7 +26104,7 @@
         <v>5.2453741431236302E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>74.884201049804702</v>
       </c>
@@ -26251,7 +26142,7 @@
         <v>5.2513767033815398E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>75.498832702636705</v>
       </c>
@@ -26289,7 +26180,7 @@
         <v>5.3982730954885497E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>76.096923828125</v>
       </c>
@@ -26327,7 +26218,7 @@
         <v>5.3605262190103503E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>76.621826171875</v>
       </c>
@@ -26365,7 +26256,7 @@
         <v>5.5256426334381097E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>77.245025634765597</v>
       </c>
@@ -26403,7 +26294,7 @@
         <v>5.47118782997131E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>77.860267639160199</v>
       </c>
@@ -26441,7 +26332,7 @@
         <v>5.6721013039350503E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>78.411506652832003</v>
       </c>
@@ -26479,7 +26370,7 @@
         <v>5.8010678738355602E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>78.9981689453125</v>
       </c>
@@ -26517,7 +26408,7 @@
         <v>5.7547584176063503E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>79.619560241699205</v>
       </c>
@@ -26555,7 +26446,7 @@
         <v>5.9469889849424397E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>80.243713378906307</v>
       </c>
@@ -26593,7 +26484,7 @@
         <v>6.1285737901925999E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>80.867256164550795</v>
       </c>
@@ -26631,7 +26522,7 @@
         <v>6.2160179018974297E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>81.482818603515597</v>
       </c>
@@ -26669,7 +26560,7 @@
         <v>6.4011648297309903E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>82.107276916503906</v>
       </c>
@@ -26707,7 +26598,7 @@
         <v>6.5367303788661998E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>82.730819702148395</v>
       </c>
@@ -26745,7 +26636,7 @@
         <v>6.7161314189434093E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>83.342399597167997</v>
       </c>
@@ -26783,7 +26674,7 @@
         <v>6.8302460014820099E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>83.974830627441406</v>
       </c>
@@ -26821,7 +26712,7 @@
         <v>6.9825850427150699E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>84.591934204101605</v>
       </c>
@@ -26859,7 +26750,7 @@
         <v>7.2587661445140797E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>85.214859008789105</v>
       </c>
@@ -26897,7 +26788,7 @@
         <v>7.4610665440559401E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>85.847595214843807</v>
       </c>
@@ -26935,7 +26826,7 @@
         <v>7.6539218425750705E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>86.458564758300795</v>
       </c>
@@ -26973,7 +26864,7 @@
         <v>7.8413285315036801E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>87.079032897949205</v>
       </c>
@@ -27011,7 +26902,7 @@
         <v>8.1963703036308302E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>87.696441650390597</v>
       </c>
@@ -27049,7 +26940,7 @@
         <v>8.5485421121120495E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>88.309242248535199</v>
       </c>
@@ -27087,7 +26978,7 @@
         <v>8.6265638470649705E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>88.933395385742202</v>
       </c>
@@ -27125,7 +27016,7 @@
         <v>9.0091787278652205E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>89.568901062011705</v>
       </c>
@@ -27163,7 +27054,7 @@
         <v>9.2365473508834797E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>90.186614990234403</v>
       </c>
@@ -27201,7 +27092,7 @@
         <v>9.6215896308422103E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>90.805549621582003</v>
       </c>
@@ -27239,7 +27130,7 @@
         <v>9.9204033613204998E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>91.424491882324205</v>
       </c>
@@ -27277,7 +27168,7 @@
         <v>0.10201422870159101</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>92.0489501953125</v>
       </c>
@@ -27315,7 +27206,7 @@
         <v>0.10513148456811899</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>92.669731140136705</v>
       </c>
@@ -27353,7 +27244,7 @@
         <v>0.107184410095215</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>93.306457519531307</v>
       </c>
@@ -27391,7 +27282,7 @@
         <v>0.112218610942364</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>93.939201354980497</v>
       </c>
@@ -27429,7 +27320,7 @@
         <v>0.113893792033195</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>94.565650939941406</v>
       </c>
@@ -27467,7 +27358,7 @@
         <v>0.117051094770432</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>95.196136474609403</v>
       </c>
@@ -27505,7 +27396,7 @@
         <v>0.118278130888939</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>95.830307006835895</v>
       </c>
@@ -27543,7 +27434,7 @@
         <v>0.1205715239048</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>96.453094482421903</v>
       </c>
@@ -27581,7 +27472,7 @@
         <v>0.12208054214716001</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>97.070632934570298</v>
       </c>
@@ -27619,7 +27510,7 @@
         <v>0.12516131997108501</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>97.699577331542997</v>
       </c>
@@ -27657,7 +27548,7 @@
         <v>0.127717435359955</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>98.323570251464801</v>
       </c>
@@ -27695,7 +27586,7 @@
         <v>0.127679884433746</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>98.940673828125</v>
       </c>
@@ -27733,7 +27624,7 @@
         <v>0.129882171750069</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>99.569763183593807</v>
       </c>
@@ -27771,7 +27662,7 @@
         <v>0.131315678358078</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>100.188400268555</v>
       </c>
@@ -27809,7 +27700,7 @@
         <v>0.13154380023479501</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>100.79135894775401</v>
       </c>
@@ -27847,7 +27738,7 @@
         <v>0.13192693889141099</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>101.40753936767599</v>
       </c>
@@ -27885,7 +27776,7 @@
         <v>0.13427817821502699</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>102.028327941895</v>
       </c>
@@ -27923,7 +27814,7 @@
         <v>0.13492344319820401</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>102.63811492919901</v>
       </c>
@@ -27961,7 +27852,7 @@
         <v>0.13421189785003701</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>103.243003845215</v>
       </c>
@@ -27999,7 +27890,7 @@
         <v>0.13518549501895899</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>103.846961975098</v>
       </c>
@@ -28037,7 +27928,7 @@
         <v>0.135332331061363</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>104.4462890625</v>
       </c>
@@ -28075,7 +27966,7 @@
         <v>0.136051416397095</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>105.064445495605</v>
       </c>
@@ -28113,7 +28004,7 @@
         <v>0.136031314730644</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>105.678588867188</v>
       </c>
@@ -28151,7 +28042,7 @@
         <v>0.13768325746059401</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>106.286247253418</v>
       </c>
@@ -28189,7 +28080,7 @@
         <v>0.13735647499561299</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>106.88372802734401</v>
       </c>
@@ -28227,7 +28118,7 @@
         <v>0.13822478055953999</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>107.479972839355</v>
       </c>
@@ -28265,7 +28156,7 @@
         <v>0.13741008937358901</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>108.093803405762</v>
       </c>
@@ -28303,7 +28194,7 @@
         <v>0.13828319311142001</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>108.67832183837901</v>
       </c>
@@ -28341,7 +28232,7 @@
         <v>0.13851687312126201</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>109.285362243652</v>
       </c>
@@ -28379,7 +28270,7 @@
         <v>0.13752374053001401</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>109.880989074707</v>
       </c>
@@ -28417,7 +28308,7 @@
         <v>0.13962927460670499</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>110.481552124023</v>
       </c>
@@ -28455,7 +28346,7 @@
         <v>0.13890679180622101</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>111.06329345703099</v>
       </c>
@@ -28493,7 +28384,7 @@
         <v>0.13809987902641299</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>111.66571044921901</v>
       </c>
@@ -28531,7 +28422,7 @@
         <v>0.137143939733505</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>112.255165100098</v>
       </c>
@@ -28569,7 +28460,7 @@
         <v>0.136715888977051</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>112.86313629150401</v>
       </c>
@@ -28607,7 +28498,7 @@
         <v>0.13558705151081099</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>113.456909179688</v>
       </c>
@@ -28645,7 +28536,7 @@
         <v>0.13437771797180201</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>114.04574584960901</v>
       </c>
@@ -28683,7 +28574,7 @@
         <v>0.132857486605644</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>114.656784057617</v>
       </c>
@@ -28721,7 +28612,7 @@
         <v>0.13058991730213201</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>115.270065307617</v>
       </c>
@@ -28759,7 +28650,7 @@
         <v>0.12979000806808499</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>115.87619781494099</v>
       </c>
@@ -28797,7 +28688,7 @@
         <v>0.12711991369724299</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>116.48543548584</v>
       </c>
@@ -28835,7 +28726,7 @@
         <v>0.124967135488987</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>117.090950012207</v>
       </c>
@@ -28873,7 +28764,7 @@
         <v>0.121238030493259</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>117.685905456543</v>
       </c>
@@ -28911,7 +28802,7 @@
         <v>0.118752531707287</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>118.30166625976599</v>
       </c>
@@ -28949,7 +28840,7 @@
         <v>0.117422260344028</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>118.890419006348</v>
       </c>
@@ -28987,7 +28878,7 @@
         <v>0.115177750587463</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>119.501518249512</v>
       </c>
@@ -29025,7 +28916,7 @@
         <v>0.114841058850288</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>120.103309631348</v>
       </c>
@@ -29063,7 +28954,7 @@
         <v>0.109610475599766</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>120.70074462890599</v>
       </c>
@@ -29101,7 +28992,7 @@
         <v>0.10780314356088599</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>121.327690124512</v>
       </c>
@@ -29139,7 +29030,7 @@
         <v>0.107463866472244</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>121.93320465087901</v>
       </c>
@@ -29177,7 +29068,7 @@
         <v>0.104949720203876</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>122.552627563477</v>
       </c>
@@ -29215,7 +29106,7 @@
         <v>0.104989223182201</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>123.18060302734401</v>
       </c>
@@ -29253,7 +29144,7 @@
         <v>0.103732742369175</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>123.78889465332</v>
       </c>
@@ -29291,7 +29182,7 @@
         <v>0.101314850151539</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>124.405624389648</v>
       </c>
@@ -29329,7 +29220,7 @@
         <v>0.10202945023775099</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>125.02953338623</v>
       </c>
@@ -29367,7 +29258,7 @@
         <v>9.99621972441673E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>125.64532470703099</v>
       </c>
@@ -29405,7 +29296,7 @@
         <v>9.8765522241592393E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>126.26174163818401</v>
       </c>
@@ -29443,7 +29334,7 @@
         <v>9.7680903971195193E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>126.86660003662099</v>
       </c>
@@ -29481,7 +29372,7 @@
         <v>9.7116015851497706E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>127.485511779785</v>
       </c>
@@ -29519,7 +29410,7 @@
         <v>9.6423327922821003E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>128.09381103515599</v>
       </c>
@@ -29557,7 +29448,7 @@
         <v>9.6119463443756104E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>128.706787109375</v>
       </c>
@@ -29595,7 +29486,7 @@
         <v>9.5615983009338407E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>129.30789184570301</v>
       </c>
@@ -29633,7 +29524,7 @@
         <v>9.5695659518241896E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>129.92242431640599</v>
       </c>
@@ -29671,7 +29562,7 @@
         <v>9.6295021474361406E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>130.51979064941401</v>
       </c>
@@ -29709,7 +29600,7 @@
         <v>9.4175063073635101E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>131.13870239257801</v>
       </c>
@@ -29747,7 +29638,7 @@
         <v>9.4895943999290494E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>131.74137878418</v>
       </c>
@@ -29785,7 +29676,7 @@
         <v>9.5648154616355896E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>132.34185791015599</v>
       </c>
@@ -29823,7 +29714,7 @@
         <v>9.5102787017822293E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>132.94577026367199</v>
       </c>
@@ -29861,7 +29752,7 @@
         <v>9.6325576305389404E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>133.556564331055</v>
       </c>
@@ -29899,7 +29790,7 @@
         <v>9.5126494765281705E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>134.15296936035199</v>
       </c>
@@ -29937,7 +29828,7 @@
         <v>9.5394782721996293E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>134.76559448242199</v>
       </c>
@@ -29975,7 +29866,7 @@
         <v>9.5272041857242598E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>135.36503601074199</v>
       </c>
@@ -30013,7 +29904,7 @@
         <v>9.3691542744636494E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>135.97232055664099</v>
       </c>
@@ -30051,7 +29942,7 @@
         <v>9.4487108290195507E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>136.55194091796901</v>
       </c>
@@ -30089,7 +29980,7 @@
         <v>9.4386674463748904E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>137.14602661132801</v>
       </c>
@@ -30127,7 +30018,7 @@
         <v>9.3978598713874803E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>137.753005981445</v>
       </c>
@@ -30165,7 +30056,7 @@
         <v>9.4043597579002394E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>138.33609008789099</v>
       </c>
@@ -30203,7 +30094,7 @@
         <v>9.2394493520259899E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>138.94651794433599</v>
       </c>
@@ -30241,7 +30132,7 @@
         <v>9.2961438000202207E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>139.52992248535199</v>
       </c>
@@ -30279,7 +30170,7 @@
         <v>9.2720344662666307E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>140.12463378906301</v>
       </c>
@@ -30317,7 +30208,7 @@
         <v>9.2062652111053495E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>140.71023559570301</v>
       </c>
@@ -30355,7 +30246,7 @@
         <v>9.1979436576366397E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>141.31311035156301</v>
       </c>
@@ -30393,7 +30284,7 @@
         <v>8.8953778147697393E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>141.89808654785199</v>
       </c>
@@ -30431,7 +30322,7 @@
         <v>8.9266538619995103E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>142.47709655761699</v>
       </c>
@@ -30469,7 +30360,7 @@
         <v>8.9987196028232602E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>142.99803161621099</v>
       </c>
@@ -30507,7 +30398,7 @@
         <v>8.7738603353500394E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>143.575271606445</v>
       </c>
@@ -30545,7 +30436,7 @@
         <v>8.9225217700004605E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>144.08676147460901</v>
       </c>
@@ -30583,7 +30474,7 @@
         <v>8.6143180727958693E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>144.66589355468801</v>
       </c>
@@ -30621,7 +30512,7 @@
         <v>8.8070049881935106E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>145.19593811035199</v>
       </c>
@@ -30659,7 +30550,7 @@
         <v>8.5974089801311507E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>145.74298095703099</v>
       </c>
@@ -30697,7 +30588,7 @@
         <v>8.3981156349182101E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>146.33203125</v>
       </c>
@@ -30735,7 +30626,7 @@
         <v>8.4142535924911499E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>146.88433837890599</v>
       </c>
@@ -30773,7 +30664,7 @@
         <v>8.2388430833816501E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>147.40754699707</v>
       </c>
@@ -30811,7 +30702,7 @@
         <v>8.3522476255893693E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>147.92158508300801</v>
       </c>
@@ -30849,7 +30740,7 @@
         <v>8.1947274506092099E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>148.49826049804699</v>
       </c>
@@ -30887,7 +30778,7 @@
         <v>8.2339033484458896E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>149.09390258789099</v>
       </c>
@@ -30925,7 +30816,7 @@
         <v>8.1137776374816895E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>149.634201049805</v>
       </c>
@@ -30963,7 +30854,7 @@
         <v>8.0713085830211598E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>150.14665222168</v>
       </c>
@@ -31001,7 +30892,7 @@
         <v>7.93932750821114E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>150.70213317871099</v>
       </c>
@@ -31039,7 +30930,7 @@
         <v>7.8519895672798198E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>151.24305725097699</v>
       </c>
@@ -31077,7 +30968,7 @@
         <v>8.0715246498584706E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>151.802001953125</v>
       </c>
@@ -31115,7 +31006,7 @@
         <v>7.7382251620292705E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>152.40682983398401</v>
       </c>
@@ -31153,7 +31044,7 @@
         <v>7.7565826475620298E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>152.95977783203099</v>
       </c>
@@ -31191,7 +31082,7 @@
         <v>7.6331570744514493E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>153.54309082031301</v>
       </c>
@@ -31229,7 +31120,7 @@
         <v>7.6064482331275898E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>154.115966796875</v>
       </c>
@@ -31267,7 +31158,7 @@
         <v>7.5866535305976895E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>154.69357299804699</v>
       </c>
@@ -31305,7 +31196,7 @@
         <v>7.5419366359710693E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>155.19369506835901</v>
       </c>
@@ -31343,7 +31234,7 @@
         <v>7.6075732707977295E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>155.70614624023401</v>
       </c>
@@ -31381,7 +31272,7 @@
         <v>7.5719393789768205E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>156.26448059082</v>
       </c>
@@ -31419,7 +31310,7 @@
         <v>7.5322881340980502E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>156.78167724609401</v>
       </c>
@@ -31457,7 +31348,7 @@
         <v>7.4077099561691298E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>157.32734680175801</v>
       </c>
@@ -31495,7 +31386,7 @@
         <v>7.3592148721218095E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>157.83853149414099</v>
       </c>
@@ -31533,7 +31424,7 @@
         <v>7.3176503181457506E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>158.33428955078099</v>
       </c>
@@ -31571,7 +31462,7 @@
         <v>7.4129633605480194E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>158.91227722168</v>
       </c>
@@ -31609,7 +31500,7 @@
         <v>7.3510900139808696E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>159.44859313964801</v>
       </c>
@@ -31647,7 +31538,7 @@
         <v>7.3337636888027205E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>160.00303649902301</v>
       </c>
@@ -31685,7 +31576,7 @@
         <v>7.1850679814815493E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>160.52438354492199</v>
       </c>
@@ -31705,7 +31596,7 @@
         <v>6.4951911568641704E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>161.063552856445</v>
       </c>
@@ -31725,7 +31616,7 @@
         <v>6.4161136746406597E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>161.57472229003901</v>
       </c>

--- a/pineappleGlassAlumina-Composite/pineappleGlassAluminaSheets.xlsx
+++ b/pineappleGlassAlumina-Composite/pineappleGlassAluminaSheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/ReserveDisk/OpenSourceContribution/paperStuff/pineappleGlassAlumina-Composite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8174A9D1-61CF-9D47-A1C3-F1F0ECBAF3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68495F92-BC08-0C45-8D6F-3DAE7DE07817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="1440" windowWidth="22040" windowHeight="13980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2800" yWindow="1440" windowWidth="22040" windowHeight="13980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WA TS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
   <si>
     <t>Specimen</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>Sample Number</t>
-  </si>
-  <si>
-    <t>Thickness(In mm)</t>
   </si>
   <si>
     <t>Peak load(Kn)</t>
@@ -396,6 +393,15 @@
   </si>
   <si>
     <t>Tensile Strain</t>
+  </si>
+  <si>
+    <t>SaltWater</t>
+  </si>
+  <si>
+    <t>Peak load(KN)</t>
+  </si>
+  <si>
+    <t>Thickness(mm)</t>
   </si>
 </sst>
 </file>
@@ -9799,16 +9805,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>181610</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1127760</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>80010</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>153670</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9835,16 +9841,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1061085</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>45085</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>375285</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>534035</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9873,16 +9879,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>255270</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>531495</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>372745</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>115570</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10177,8 +10183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA65"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11679,6 +11685,9 @@
         <f>STDEV(L36:L37)</f>
         <v>0.23722474758149142</v>
       </c>
+      <c r="P39">
+        <v>1.7731524732678074</v>
+      </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
@@ -11998,7 +12007,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C48">
         <f>AVERAGE(C45:C47)</f>
@@ -12043,10 +12052,10 @@
     </row>
     <row r="52" spans="5:12" x14ac:dyDescent="0.2">
       <c r="F52" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" t="s">
         <v>30</v>
-      </c>
-      <c r="K52" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="54" spans="5:12" x14ac:dyDescent="0.2">
@@ -12063,7 +12072,7 @@
         <v>11</v>
       </c>
       <c r="K54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L54" t="s">
         <v>10</v>
@@ -12281,7 +12290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -12299,7 +12308,7 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -12308,7 +12317,7 @@
         <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -12490,7 +12499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:R236"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView zoomScale="107" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -12514,13 +12523,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
         <v>45</v>
       </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>15</v>
@@ -12532,13 +12541,13 @@
         <v>16</v>
       </c>
       <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" t="s">
-        <v>46</v>
-      </c>
       <c r="O2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -12546,10 +12555,10 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -22349,10 +22358,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22363,23 +22372,23 @@
     <col min="4" max="4" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>3.16</v>
@@ -22391,9 +22400,9 @@
         <v>5.2214999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>3.24</v>
@@ -22405,9 +22414,9 @@
         <v>7.4652000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>3.16</v>
@@ -22419,9 +22428,9 @@
         <v>7.3971499999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>3.16</v>
@@ -22433,9 +22442,9 @@
         <v>7.3377999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>3.2</v>
@@ -22447,135 +22456,79 @@
         <v>7.9100999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
       <c r="C7">
-        <f>AVERAGE(C2:C6)</f>
-        <v>0.36019999999999996</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7">
-        <v>7.0663499999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <f>STDEV(D2:D6)</f>
-        <v>1.0556491663900511</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="D7">
+        <f>(3*C7*1000)/(4*12*B7)</f>
+        <v>5.4375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>3.01</v>
+      </c>
+      <c r="C8">
+        <v>0.315</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D11" si="0">(3*C8*1000)/(4*12*B8)</f>
+        <v>6.5406976744186061</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2.98</v>
+      </c>
+      <c r="C9">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>6.1451342281879198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>2.99</v>
+      </c>
+      <c r="C10">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>6.3545150501672225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="C11">
-        <v>0.26100000000000001</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="D11">
-        <f>(3*C11*1000)/(4*12*B11)</f>
-        <v>5.4375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>3.01</v>
-      </c>
-      <c r="C12">
-        <v>0.315</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ref="D12:D15" si="0">(3*C12*1000)/(4*12*B12)</f>
-        <v>6.5406976744186061</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>2.98</v>
-      </c>
-      <c r="C13">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>6.1451342281879198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>2.99</v>
-      </c>
-      <c r="C14">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>6.3545150501672225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>2.99</v>
-      </c>
-      <c r="C15">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="D15">
         <f t="shared" si="0"/>
         <v>6.0827759197324411</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C16">
-        <f>AVERAGE(C11:C15)</f>
-        <v>0.2928</v>
-      </c>
-      <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16">
-        <v>6.1122446000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17">
-        <f>STDEV(D11:D15)</f>
-        <v>0.41817978847637821</v>
       </c>
     </row>
   </sheetData>
@@ -22603,10 +22556,10 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -22617,7 +22570,7 @@
         <v>0.26400000000000001</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -22628,7 +22581,7 @@
         <v>0.38700000000000001</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -22639,7 +22592,7 @@
         <v>0.374</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -22650,7 +22603,7 @@
         <v>0.371</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -22661,7 +22614,7 @@
         <v>0.40500000000000003</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -22685,10 +22638,10 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -22699,7 +22652,7 @@
         <v>0.26100000000000001</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -22710,7 +22663,7 @@
         <v>0.315</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -22721,10 +22674,10 @@
         <v>0.29299999999999998</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -22735,7 +22688,7 @@
         <v>0.30399999999999999</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -22746,10 +22699,10 @@
         <v>0.29099999999999998</v>
       </c>
       <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
         <v>42</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">

--- a/pineappleGlassAlumina-Composite/pineappleGlassAluminaSheets.xlsx
+++ b/pineappleGlassAlumina-Composite/pineappleGlassAluminaSheets.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/ReserveDisk/OpenSourceContribution/paperStuff/pineappleGlassAlumina-Composite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68495F92-BC08-0C45-8D6F-3DAE7DE07817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EB2C62-5EDD-2E49-9A4D-1B452D74D1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="1440" windowWidth="22040" windowHeight="13980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2800" yWindow="1440" windowWidth="22040" windowHeight="13980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WA TS" sheetId="1" r:id="rId1"/>
-    <sheet name="TENSILE" sheetId="2" r:id="rId2"/>
-    <sheet name="DMA" sheetId="3" r:id="rId3"/>
-    <sheet name="ILSS" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
-    <sheet name="FATIGUE" sheetId="5" r:id="rId6"/>
+    <sheet name="WA" sheetId="7" r:id="rId2"/>
+    <sheet name="TENSILE" sheetId="2" r:id="rId3"/>
+    <sheet name="DMA" sheetId="3" r:id="rId4"/>
+    <sheet name="ILSS" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="9" r:id="rId7"/>
+    <sheet name="FATIGUE" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="53">
   <si>
     <t>Specimen</t>
   </si>
@@ -403,6 +405,9 @@
   <si>
     <t>Thickness(mm)</t>
   </si>
+  <si>
+    <t>WaterAbsWeightGain</t>
+  </si>
 </sst>
 </file>
 
@@ -411,7 +416,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +429,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -458,13 +470,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10183,8 +10196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA65"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10512,7 +10525,7 @@
         <v>1.7731524732678074</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:L11" si="9">AVERAGE(D8:D10)</f>
+        <f t="shared" ref="D11:N11" si="9">AVERAGE(D8:D10)</f>
         <v>3.3792587821734847</v>
       </c>
       <c r="E11">
@@ -12287,6 +12300,150 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C9C661-272C-004B-BEBC-6AF4056C826A}">
+  <dimension ref="A2:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.7731524732678074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3.3792587821734847</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4.0030403947736763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5.2606772091193879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>5.4202397439484171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>5.6384930819807542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>5.8467015312863202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>6.0948800667194734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>6.0847418637129751</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>6.0945544434401846</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -12495,12 +12652,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:R236"/>
   <sheetViews>
     <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22356,11 +22513,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -22536,7 +22693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P17"/>
   <sheetViews>
@@ -22726,7 +22883,77 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75162AB3-7DD4-5A45-BAE6-2BC61F6E9ABD}">
+  <dimension ref="G13:G23"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="13" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>1.7731524732678074</v>
+      </c>
+    </row>
+    <row r="15" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>3.3792587821734847</v>
+      </c>
+    </row>
+    <row r="16" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>4.0030403947736763</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>5.2606772091193879</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>5.4202397439484171</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>5.6384930819807542</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>5.8467015312863202</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>6.0948800667194734</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>6.0847418637129751</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>6.0945544434401846</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:Q236"/>
   <sheetViews>

--- a/pineappleGlassAlumina-Composite/pineappleGlassAluminaSheets.xlsx
+++ b/pineappleGlassAlumina-Composite/pineappleGlassAluminaSheets.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/ReserveDisk/OpenSourceContribution/paperStuff/pineappleGlassAlumina-Composite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EB2C62-5EDD-2E49-9A4D-1B452D74D1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F165D6-CDB4-B64C-9575-FB753D72075F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2800" yWindow="1440" windowWidth="22040" windowHeight="13980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WA TS" sheetId="1" r:id="rId1"/>
-    <sheet name="WA" sheetId="7" r:id="rId2"/>
+    <sheet name="WA_TS" sheetId="7" r:id="rId2"/>
     <sheet name="TENSILE" sheetId="2" r:id="rId3"/>
     <sheet name="DMA" sheetId="3" r:id="rId4"/>
     <sheet name="ILSS" sheetId="4" r:id="rId5"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
   <si>
     <t>Specimen</t>
   </si>
@@ -407,6 +407,9 @@
   </si>
   <si>
     <t>WaterAbsWeightGain</t>
+  </si>
+  <si>
+    <t>ThicknessGain</t>
   </si>
 </sst>
 </file>
@@ -10525,7 +10528,7 @@
         <v>1.7731524732678074</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:N11" si="9">AVERAGE(D8:D10)</f>
+        <f t="shared" ref="D11:L11" si="9">AVERAGE(D8:D10)</f>
         <v>3.3792587821734847</v>
       </c>
       <c r="E11">
@@ -12301,108 +12304,144 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C9C661-272C-004B-BEBC-6AF4056C826A}">
-  <dimension ref="A2:J23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.7731524729999999</v>
+      </c>
+      <c r="C3">
+        <v>0.25896000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1.7731524732678074</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3.379258782</v>
+      </c>
+      <c r="C4">
+        <v>1.7139850000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>3.3792587821734847</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4.0030403950000002</v>
+      </c>
+      <c r="C5">
+        <v>2.1284329999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>4.0030403947736763</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5.2606772089999998</v>
+      </c>
+      <c r="C6">
+        <v>2.2837369999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>5.2606772091193879</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5.4202397439999999</v>
+      </c>
+      <c r="C7">
+        <v>2.4895520000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>5.4202397439484171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5.6384930820000001</v>
+      </c>
+      <c r="C8">
+        <v>2.9551240000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>5.6384930819807542</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5.8467015309999999</v>
+      </c>
+      <c r="C9">
+        <v>3.580133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>5.8467015312863202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6.0948800670000001</v>
+      </c>
+      <c r="C10">
+        <v>3.7354501999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>6.0948800667194734</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6.0847418639999997</v>
+      </c>
+      <c r="C11">
+        <v>4.7780500000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>6.0847418637129751</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>6.0945544434401846</v>
+        <v>6.0945544429999998</v>
+      </c>
+      <c r="C12">
+        <v>4.7780500000000004</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
